--- a/01_Paradigms/ER-ED/blocks_reg.xlsx
+++ b/01_Paradigms/ER-ED/blocks_reg.xlsx
@@ -379,6 +379,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
